--- a/data/trans_orig/P56S_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P56S_R-Clase-trans_orig.xlsx
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4473</v>
+        <v>3425</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2523179095677678</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>1</v>
+        <v>0.7656963634271083</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5081</v>
+        <v>4457</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1078610687322843</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.485636714423032</v>
+        <v>0.4259983706571431</v>
       </c>
     </row>
     <row r="27">
@@ -1976,7 +1976,7 @@
         <v>5172</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2610</v>
+        <v>2622</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5991</v>
@@ -1985,7 +1985,7 @@
         <v>0.8633321314802054</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4356154586336475</v>
+        <v>0.4375901273468936</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>3344</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>4473</v>
@@ -2006,7 +2006,7 @@
         <v>0.7476820904322321</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0</v>
+        <v>0.2343036365728917</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>8516</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4658</v>
+        <v>5365</v>
       </c>
       <c r="T28" s="5" t="n">
         <v>10463</v>
@@ -2027,7 +2027,7 @@
         <v>0.8138939562522333</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4451499462462149</v>
+        <v>0.5127114921750173</v>
       </c>
       <c r="W28" s="6" t="n">
         <v>1</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3381</v>
+        <v>3369</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1366678685197946</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5643845413663524</v>
+        <v>0.5624098726531067</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3623</v>
+        <v>3950</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07824497501548247</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.346242662505854</v>
+        <v>0.3774891998819411</v>
       </c>
     </row>
     <row r="30">
@@ -2373,19 +2373,19 @@
         <v>3461</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>845</v>
+        <v>893</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7734</v>
+        <v>8452</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1174907829554789</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02870041988517021</v>
+        <v>0.03031912094398715</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2625423320337544</v>
+        <v>0.2869117466930149</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2407,19 +2407,19 @@
         <v>3461</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>844</v>
+        <v>916</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7993</v>
+        <v>8101</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09401864867212396</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02291417058915868</v>
+        <v>0.02487917813225874</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2171295944948583</v>
+        <v>0.2200548895734744</v>
       </c>
     </row>
     <row r="36">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4137</v>
+        <v>4938</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.158707513008384</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5625675986963035</v>
+        <v>0.6715381914293356</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5789</v>
+        <v>5672</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03170635145500465</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1572489741057678</v>
+        <v>0.1540679630101043</v>
       </c>
     </row>
     <row r="37">
@@ -2499,19 +2499,19 @@
         <v>24282</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19544</v>
+        <v>18877</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>27173</v>
+        <v>27025</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8243045765950621</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6634681497538021</v>
+        <v>0.6408091907164396</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9224369128721056</v>
+        <v>0.9174047326337081</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -2520,7 +2520,7 @@
         <v>6187</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3217</v>
+        <v>2416</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>7354</v>
@@ -2529,7 +2529,7 @@
         <v>0.8412924869916161</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4374324013036959</v>
+        <v>0.3284618085706534</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -2541,19 +2541,19 @@
         <v>30469</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25146</v>
+        <v>24177</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>33983</v>
+        <v>34072</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8276983961270385</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6830884932156005</v>
+        <v>0.656768351908425</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9231381580760225</v>
+        <v>0.9255804229510894</v>
       </c>
     </row>
     <row r="38">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5481</v>
+        <v>5951</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05820464044945904</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1860558340973543</v>
+        <v>0.2020297939149671</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5726</v>
+        <v>5300</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04657660374583279</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1555434803999882</v>
+        <v>0.1439705598374824</v>
       </c>
     </row>
     <row r="39">
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4347</v>
+        <v>5584</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0539333621116662</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2518628273521545</v>
+        <v>0.3234760450764107</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4758</v>
+        <v>5570</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0338448700286493</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1729782444257325</v>
+        <v>0.2025109282840954</v>
       </c>
     </row>
     <row r="43">
@@ -2925,19 +2925,19 @@
         <v>3436</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1102</v>
+        <v>1064</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>8662</v>
+        <v>7955</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1990630825797722</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06384190900153035</v>
+        <v>0.06161301025489466</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5018279603629783</v>
+        <v>0.4608913321385385</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3</v>
@@ -2946,19 +2946,19 @@
         <v>3436</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1123</v>
+        <v>1081</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>8506</v>
+        <v>8984</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1249183046194213</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04081216953198247</v>
+        <v>0.03929085917990246</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3092577472746585</v>
+        <v>0.3266295185998434</v>
       </c>
     </row>
     <row r="45">
@@ -3022,7 +3022,7 @@
         <v>9409</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6484</v>
+        <v>6620</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>10245</v>
@@ -3031,7 +3031,7 @@
         <v>0.9184318091616541</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.6328741217549032</v>
+        <v>0.6461475843972911</v>
       </c>
       <c r="I46" s="6" t="n">
         <v>1</v>
@@ -3043,19 +3043,19 @@
         <v>11778</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6577</v>
+        <v>7097</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>15057</v>
+        <v>15151</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.6823195733490077</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3810197602304372</v>
+        <v>0.4111623925294968</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.8722912797707464</v>
+        <v>0.8777681775547685</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -3064,19 +3064,19 @@
         <v>21187</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>15859</v>
+        <v>15932</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>25163</v>
+        <v>25280</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.7702640031808684</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5765580903521937</v>
+        <v>0.5792158615548509</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.9148190824537195</v>
+        <v>0.9190716936918872</v>
       </c>
     </row>
     <row r="47">
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3761</v>
+        <v>3625</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08156819083834593</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3671258782450982</v>
+        <v>0.3538524156027089</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>6051</v>
+        <v>5675</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06468398195955383</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3505385834255795</v>
+        <v>0.3287718528317413</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6295</v>
+        <v>6356</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07097282217106091</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2288467231503667</v>
+        <v>0.2310718819712521</v>
       </c>
     </row>
     <row r="48">
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>5403</v>
+        <v>5243</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01767565273195817</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09014867512508434</v>
+        <v>0.08747048651514636</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>5403</v>
+        <v>5243</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01767565273195817</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09014867512508434</v>
+        <v>0.08747048651514636</v>
       </c>
     </row>
     <row r="53">
@@ -3436,19 +3436,19 @@
         <v>2853</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>7837</v>
+        <v>8327</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04760036747424325</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.01483985571773756</v>
+        <v>0.01492454323097424</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1307549708752082</v>
+        <v>0.138935329883234</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>3</v>
@@ -3457,19 +3457,19 @@
         <v>2853</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>7837</v>
+        <v>8327</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.04760036747424325</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.01483985571773756</v>
+        <v>0.01492454323097424</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1307549708752082</v>
+        <v>0.138935329883234</v>
       </c>
     </row>
     <row r="54">
@@ -3495,19 +3495,19 @@
         <v>3366</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>8932</v>
+        <v>8997</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.05616589666958485</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01782887844473714</v>
+        <v>0.01801258809875641</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1490210910044863</v>
+        <v>0.1501142818041226</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3</v>
@@ -3516,19 +3516,19 @@
         <v>3366</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>8932</v>
+        <v>8997</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.05616589666958485</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01782887844473714</v>
+        <v>0.01801258809875641</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1490210910044863</v>
+        <v>0.1501142818041226</v>
       </c>
     </row>
     <row r="55">
@@ -3554,19 +3554,19 @@
         <v>43751</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>35474</v>
+        <v>35868</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>49770</v>
+        <v>50238</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.7299763886883039</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.5918766698435567</v>
+        <v>0.5984521539160883</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.8303943872864936</v>
+        <v>0.8382057432110566</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>39</v>
@@ -3575,19 +3575,19 @@
         <v>43751</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>35474</v>
+        <v>35868</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>49770</v>
+        <v>50238</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.7299763886883039</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.5918766698435567</v>
+        <v>0.5984521539160883</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.8303943872864936</v>
+        <v>0.8382057432110566</v>
       </c>
     </row>
     <row r="56">
@@ -3613,19 +3613,19 @@
         <v>8905</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>4322</v>
+        <v>4290</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>16461</v>
+        <v>16586</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1485816944359097</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.07210904061721583</v>
+        <v>0.07157675079898466</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2746519713266874</v>
+        <v>0.2767323421643395</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>8</v>
@@ -3634,19 +3634,19 @@
         <v>8905</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>4322</v>
+        <v>4290</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>16461</v>
+        <v>16586</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1485816944359097</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.07210904061721583</v>
+        <v>0.07157675079898466</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2746519713266874</v>
+        <v>0.2767323421643395</v>
       </c>
     </row>
     <row r="57">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>4836</v>
+        <v>5082</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.009951655140658371</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.05170041195892871</v>
+        <v>0.05432313327012159</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>4697</v>
+        <v>5011</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.006563872306161771</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.0331191102556042</v>
+        <v>0.03533168562589505</v>
       </c>
     </row>
     <row r="61">
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>5273</v>
+        <v>5728</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.01132505798789349</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.05636690093508012</v>
+        <v>0.06122871120656589</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>1</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>4589</v>
+        <v>6209</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.007469735781810095</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.03235990747599847</v>
+        <v>0.0437763575206089</v>
       </c>
     </row>
     <row r="62">
@@ -3946,19 +3946,19 @@
         <v>3461</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.07168534256005003</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>9</v>
@@ -3967,19 +3967,19 @@
         <v>9739</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>4428</v>
+        <v>4503</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>17432</v>
+        <v>18109</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.1041128270448593</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.04733049286483607</v>
+        <v>0.04813554929887203</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.1863487299131111</v>
+        <v>0.1935898667859195</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>13</v>
@@ -3988,19 +3988,19 @@
         <v>13200</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>7816</v>
+        <v>6800</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>21702</v>
+        <v>21181</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.09307373116072741</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.05511206843949409</v>
+        <v>0.04794411251834887</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1530211165836378</v>
+        <v>0.1493441126116334</v>
       </c>
     </row>
     <row r="63">
@@ -4030,19 +4030,19 @@
         <v>4534</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>11223</v>
+        <v>10350</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.04846356609719327</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01220921281170157</v>
+        <v>0.01222859168322625</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.1199692966986048</v>
+        <v>0.1106470767504081</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>4</v>
@@ -4051,19 +4051,19 @@
         <v>4533</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>10214</v>
+        <v>10421</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.03196540222375133</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.008176581780920782</v>
+        <v>0.008214921848613334</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.07201707522145609</v>
+        <v>0.07347537972296533</v>
       </c>
     </row>
     <row r="64">
@@ -4080,19 +4080,19 @@
         <v>41451</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>36050</v>
+        <v>35871</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>44966</v>
+        <v>44884</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.8585362273155815</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.7466761878708803</v>
+        <v>0.742964941540127</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.9313391737089719</v>
+        <v>0.9296486422790955</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>61</v>
@@ -4101,19 +4101,19 @@
         <v>67260</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>58239</v>
+        <v>57730</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>75804</v>
+        <v>75649</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.7190130214911202</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.6225799900091378</v>
+        <v>0.6171358984087222</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.8103453162994166</v>
+        <v>0.808686749748513</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>106</v>
@@ -4122,19 +4122,19 @@
         <v>108710</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>96500</v>
+        <v>97613</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>118096</v>
+        <v>117862</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.766510077510967</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.6804193048540106</v>
+        <v>0.6882655740973134</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.8326882439682649</v>
+        <v>0.8310382305969679</v>
       </c>
     </row>
     <row r="65">
@@ -4151,19 +4151,19 @@
         <v>3369</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.06977843012436839</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>9</v>
@@ -4172,19 +4172,19 @@
         <v>10022</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.1071338722382753</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>13</v>
@@ -4193,19 +4193,19 @@
         <v>13391</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.09441718101658243</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
     </row>
     <row r="66">
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5357</v>
+        <v>6282</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2951245078670993</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7158300497050821</v>
+        <v>0.8395261377164169</v>
       </c>
     </row>
     <row r="9">
@@ -4871,7 +4871,7 @@
         <v>5275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2126</v>
+        <v>1201</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>7483</v>
@@ -4880,7 +4880,7 @@
         <v>0.7048754921329007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2841699502949178</v>
+        <v>0.1604738622835831</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4167</v>
+        <v>4364</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1769751553862373</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6377158667607939</v>
+        <v>0.6677822266022986</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5751</v>
+        <v>4943</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1173355169345524</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.583482197685675</v>
+        <v>0.5014574448512291</v>
       </c>
     </row>
     <row r="16">
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5105</v>
+        <v>4227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1579469441640598</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7811779591093543</v>
+        <v>0.6468614221139236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6073</v>
+        <v>6132</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2158696344301193</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6161166708341197</v>
+        <v>0.6221348066612215</v>
       </c>
     </row>
     <row r="18">
@@ -5344,7 +5344,7 @@
         <v>4346</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1174</v>
+        <v>1201</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>6535</v>
@@ -5353,7 +5353,7 @@
         <v>0.6650779004497029</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1796020969130007</v>
+        <v>0.1837664734906024</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -5386,19 +5386,19 @@
         <v>6573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2465</v>
+        <v>3222</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8939</v>
+        <v>9857</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6667948486353283</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2500559402202268</v>
+        <v>0.3269180828716314</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9068972558613967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4045</v>
+        <v>4019</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1389238568038374</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5701841884814044</v>
+        <v>0.5665405053428287</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4061</v>
+        <v>4992</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0559527102786614</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2305372567001601</v>
+        <v>0.2833838293179763</v>
       </c>
     </row>
     <row r="24">
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4497</v>
+        <v>4747</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1037091163201956</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4274769758406556</v>
+        <v>0.4512712956818082</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5396</v>
+        <v>4409</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06193942843344517</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3063253186123495</v>
+        <v>0.2503199301969064</v>
       </c>
     </row>
     <row r="25">
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6539</v>
+        <v>5634</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2092184478446924</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6215365753320498</v>
+        <v>0.5355897233070364</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6554</v>
+        <v>6681</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1249540207943058</v>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3720802566090527</v>
+        <v>0.3792819163090496</v>
       </c>
     </row>
     <row r="28">
@@ -5867,7 +5867,7 @@
         <v>5047</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1954</v>
+        <v>2001</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7094</v>
@@ -5876,7 +5876,7 @@
         <v>0.7114219500222334</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2753854385818038</v>
+        <v>0.2821394051646556</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>1</v>
@@ -5888,19 +5888,19 @@
         <v>7228</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3058</v>
+        <v>3945</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9466</v>
+        <v>9468</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.687072435835112</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2907143409232664</v>
+        <v>0.3749857713639994</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8998420651388588</v>
+        <v>0.8999810533532295</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -5909,19 +5909,19 @@
         <v>12276</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8006</v>
+        <v>7958</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15569</v>
+        <v>15543</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6968794001973376</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4545015717109401</v>
+        <v>0.4517989060272987</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8838726776625765</v>
+        <v>0.8823839943389193</v>
       </c>
     </row>
     <row r="29">
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1496541931739292</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5887616411285036</v>
+        <v>0.5889038693764976</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4346</v>
+        <v>5255</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06027444029625002</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.246710998525572</v>
+        <v>0.2983024757319742</v>
       </c>
     </row>
     <row r="30">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4683</v>
+        <v>5542</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02436619706317953</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1101575659941694</v>
+        <v>0.1303750899451261</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5280</v>
+        <v>6388</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01705726704330456</v>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08695437539651231</v>
+        <v>0.1052036314477022</v>
       </c>
     </row>
     <row r="33">
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6161</v>
+        <v>5174</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02486142510332553</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1449286659653007</v>
+        <v>0.1217033879329529</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4900</v>
+        <v>5326</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01740394555477681</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08069954561978335</v>
+        <v>0.08770899105391999</v>
       </c>
     </row>
     <row r="34">
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6908</v>
+        <v>6976</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05275855921146675</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1625103465498159</v>
+        <v>0.1640992610280772</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5684</v>
+        <v>6966</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06086114729827363</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3120681747589319</v>
+        <v>0.3824175398504987</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -6338,19 +6338,19 @@
         <v>3351</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1047</v>
+        <v>1082</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9008</v>
+        <v>9012</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05518902668050955</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01724744334595912</v>
+        <v>0.01781102756683665</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1483436251139877</v>
+        <v>0.1484001034998826</v>
       </c>
     </row>
     <row r="36">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7105</v>
+        <v>6497</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02646672515351038</v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1671484789171539</v>
+        <v>0.1528313071684578</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5514</v>
+        <v>4468</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06026486037507464</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3026918722127353</v>
+        <v>0.2452686779255648</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7732</v>
+        <v>6837</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03660487697491119</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1273243802182353</v>
+        <v>0.11259410470407</v>
       </c>
     </row>
     <row r="37">
@@ -6438,19 +6438,19 @@
         <v>36055</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>30737</v>
+        <v>29900</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>40335</v>
+        <v>40208</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8481649962292266</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7230568420593554</v>
+        <v>0.7033668870539587</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9488241323507988</v>
+        <v>0.9458491691846272</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -6459,19 +6459,19 @@
         <v>12941</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8499</v>
+        <v>8526</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16238</v>
+        <v>16154</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7104507581528173</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4665708800473884</v>
+        <v>0.4680780375451142</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8914833723640506</v>
+        <v>0.8868585690970016</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>42</v>
@@ -6480,19 +6480,19 @@
         <v>48996</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41309</v>
+        <v>42227</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>54519</v>
+        <v>54340</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8068559759405459</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6802639464911381</v>
+        <v>0.6953740543582843</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8978091076064186</v>
+        <v>0.8948462738851963</v>
       </c>
     </row>
     <row r="38">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4306</v>
+        <v>4969</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02338209723929119</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1013008322225228</v>
+        <v>0.1168796754153018</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -6530,19 +6530,19 @@
         <v>3068</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7493</v>
+        <v>7405</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1684232341738344</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05265948933860095</v>
+        <v>0.05223732779649241</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4113853533578877</v>
+        <v>0.40652849041689</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -6551,19 +6551,19 @@
         <v>4062</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>10733</v>
+        <v>9163</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06688890780595201</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01643047829409859</v>
+        <v>0.01620927332620358</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1767434734023654</v>
+        <v>0.1508946629032233</v>
       </c>
     </row>
     <row r="39">
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4459</v>
+        <v>4613</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06065916065573643</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2457750715206956</v>
+        <v>0.2542591500312575</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5465</v>
+        <v>5985</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01318226435178527</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06545200854146228</v>
+        <v>0.07168337020895682</v>
       </c>
     </row>
     <row r="41">
@@ -6778,19 +6778,19 @@
         <v>8599</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4164</v>
+        <v>4155</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15775</v>
+        <v>15162</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1315971416346658</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0637244640762093</v>
+        <v>0.06358353224438235</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.24141500203809</v>
+        <v>0.2320340967851079</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>8</v>
@@ -6799,19 +6799,19 @@
         <v>8599</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4281</v>
+        <v>4198</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>16116</v>
+        <v>15467</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1029988509525239</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05127490670732888</v>
+        <v>0.05028047742539012</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1930350943518249</v>
+        <v>0.1852624909838744</v>
       </c>
     </row>
     <row r="43">
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>5220</v>
+        <v>4469</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05689284378567758</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2877190459225678</v>
+        <v>0.2463001047947104</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>7386</v>
+        <v>7085</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0320678659220272</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.113023874574146</v>
+        <v>0.1084321404348959</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3</v>
@@ -6917,19 +6917,19 @@
         <v>3128</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>9266</v>
+        <v>7417</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03746275462784231</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01221268215222539</v>
+        <v>0.01205742107569969</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1109819818647547</v>
+        <v>0.0888353277050427</v>
       </c>
     </row>
     <row r="45">
@@ -6946,19 +6946,19 @@
         <v>5374</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2106</v>
+        <v>2064</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>9833</v>
+        <v>9746</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2961592923249416</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1160584485799301</v>
+        <v>0.1137299228443431</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5419538985241007</v>
+        <v>0.5371248120994534</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>7</v>
@@ -6967,19 +6967,19 @@
         <v>7773</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>3314</v>
+        <v>3336</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>14545</v>
+        <v>14326</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1189461432809097</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.05071405148673338</v>
+        <v>0.0510460057249866</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.222582898260424</v>
+        <v>0.2192399450432484</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>12</v>
@@ -6988,19 +6988,19 @@
         <v>13146</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>7596</v>
+        <v>7589</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>20658</v>
+        <v>21294</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1574575659919629</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.09097606894793375</v>
+        <v>0.09090265503410012</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2474338415438855</v>
+        <v>0.2550467997365808</v>
       </c>
     </row>
     <row r="46">
@@ -7017,19 +7017,19 @@
         <v>10638</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6282</v>
+        <v>6294</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>14896</v>
+        <v>14920</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.5862887032336443</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3462427686257389</v>
+        <v>0.3468762354262067</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.8209723025615567</v>
+        <v>0.8223370425412502</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>40</v>
@@ -7038,19 +7038,19 @@
         <v>43461</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>35863</v>
+        <v>36394</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>51164</v>
+        <v>50721</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.6650942505627951</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5488292386303101</v>
+        <v>0.5569505287454765</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.7829874416055151</v>
+        <v>0.7761959164508589</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>50</v>
@@ -7059,19 +7059,19 @@
         <v>54098</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>45349</v>
+        <v>44278</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>62563</v>
+        <v>61712</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.647968468635548</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5431775999592737</v>
+        <v>0.5303480475123238</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.7493502323615121</v>
+        <v>0.7391672271695121</v>
       </c>
     </row>
     <row r="47">
@@ -7101,19 +7101,19 @@
         <v>3417</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9082</v>
+        <v>8973</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05229459859960221</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01635087874575994</v>
+        <v>0.01615974743131796</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.138981122516926</v>
+        <v>0.1373105948473146</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -7122,19 +7122,19 @@
         <v>3417</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>9088</v>
+        <v>8264</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0409300954403376</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0127009308679666</v>
+        <v>0.01271005095768401</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1088585842174213</v>
+        <v>0.09897858383512045</v>
       </c>
     </row>
     <row r="48">
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>6071</v>
+        <v>4991</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.009573015073306382</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.058592479705897</v>
+        <v>0.04817421939675257</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>6071</v>
+        <v>4991</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.009573015073306382</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.058592479705897</v>
+        <v>0.04817421939675257</v>
       </c>
     </row>
     <row r="50">
@@ -7294,19 +7294,19 @@
         <v>4247</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>12107</v>
+        <v>11687</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.04099136211881682</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01068477928862062</v>
+        <v>0.01072704803492478</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1168485420860722</v>
+        <v>0.1127937846117582</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3</v>
@@ -7315,19 +7315,19 @@
         <v>4247</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>12107</v>
+        <v>11687</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.04099136211881682</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01068477928862062</v>
+        <v>0.01072704803492478</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1168485420860722</v>
+        <v>0.1127937846117582</v>
       </c>
     </row>
     <row r="51">
@@ -7353,19 +7353,19 @@
         <v>7301</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>3035</v>
+        <v>2997</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>14278</v>
+        <v>13903</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.07046616078870324</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.02929011653067874</v>
+        <v>0.02892283883680855</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.1378081144713384</v>
+        <v>0.1341849879898059</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>7</v>
@@ -7374,19 +7374,19 @@
         <v>7301</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>3035</v>
+        <v>2997</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>14278</v>
+        <v>13903</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.07046616078870324</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.02929011653067874</v>
+        <v>0.02892283883680855</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.1378081144713384</v>
+        <v>0.1341849879898059</v>
       </c>
     </row>
     <row r="52">
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>7532</v>
+        <v>7083</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.02062099541926915</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.07269587733985806</v>
+        <v>0.06836342395140507</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>7532</v>
+        <v>7083</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02062099541926915</v>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.07269587733985806</v>
+        <v>0.06836342395140507</v>
       </c>
     </row>
     <row r="53">
@@ -7471,19 +7471,19 @@
         <v>14975</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>9352</v>
+        <v>8305</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>23950</v>
+        <v>23541</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.14453431446393</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.09026506935154528</v>
+        <v>0.0801598562590724</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2311509622551534</v>
+        <v>0.2272043618532734</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>13</v>
@@ -7492,19 +7492,19 @@
         <v>14975</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>9352</v>
+        <v>8305</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>23950</v>
+        <v>23541</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.14453431446393</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.09026506935154528</v>
+        <v>0.0801598562590724</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2311509622551534</v>
+        <v>0.2272043618532734</v>
       </c>
     </row>
     <row r="54">
@@ -7530,19 +7530,19 @@
         <v>11915</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>6437</v>
+        <v>6389</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>19687</v>
+        <v>18966</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1149957605745007</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.06212524970401763</v>
+        <v>0.06166292439891432</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1900132068674751</v>
+        <v>0.1830487685557296</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>11</v>
@@ -7551,19 +7551,19 @@
         <v>11915</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>6437</v>
+        <v>6389</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>19687</v>
+        <v>18966</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1149957605745007</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.06212524970401763</v>
+        <v>0.06166292439891432</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1900132068674751</v>
+        <v>0.1830487685557296</v>
       </c>
     </row>
     <row r="55">
@@ -7589,19 +7589,19 @@
         <v>55077</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>43533</v>
+        <v>45481</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>64806</v>
+        <v>65892</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.5315777798642232</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.4201569259087065</v>
+        <v>0.4389562372182731</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.6254728539732496</v>
+        <v>0.6359583598093439</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>50</v>
@@ -7610,19 +7610,19 @@
         <v>55077</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>43533</v>
+        <v>45481</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>64806</v>
+        <v>65892</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.5315777798642232</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4201569259087065</v>
+        <v>0.4389562372182731</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.6254728539732496</v>
+        <v>0.6359583598093439</v>
       </c>
     </row>
     <row r="56">
@@ -7648,19 +7648,19 @@
         <v>6967</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>3057</v>
+        <v>2969</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>13883</v>
+        <v>13610</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.06724061169725046</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.0295019800316359</v>
+        <v>0.0286564445735089</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.133992730289167</v>
+        <v>0.1313561659910089</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>7</v>
@@ -7669,19 +7669,19 @@
         <v>6967</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>3057</v>
+        <v>2969</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>13883</v>
+        <v>13610</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.06724061169725046</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0295019800316359</v>
+        <v>0.0286564445735089</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.133992730289167</v>
+        <v>0.1313561659910089</v>
       </c>
     </row>
     <row r="57">
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>5771</v>
+        <v>5035</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.01401918089039714</v>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.07350904978936494</v>
+        <v>0.06413002357449679</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>1</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>4425</v>
+        <v>5006</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.004855585436485016</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.02166224463230393</v>
+        <v>0.02450516673340122</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>2</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>6782</v>
+        <v>7258</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.007399565174668602</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.02398445978189677</v>
+        <v>0.02566529795393471</v>
       </c>
     </row>
     <row r="59">
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>7017</v>
+        <v>6626</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.02574857343612543</v>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.08938866097377103</v>
+        <v>0.08440028601997759</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>3</v>
@@ -7853,19 +7853,19 @@
         <v>4247</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>13767</v>
+        <v>13368</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.02079147054524233</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.005446102261526926</v>
+        <v>0.005391700542193023</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.06739484897542583</v>
+        <v>0.06544292747541604</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>5</v>
@@ -7874,19 +7874,19 @@
         <v>6269</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>2166</v>
+        <v>2092</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>14881</v>
+        <v>15443</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.02216765191181653</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.007658771968391638</v>
+        <v>0.007399616089064916</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.05262227800815786</v>
+        <v>0.0546121931482068</v>
       </c>
     </row>
     <row r="60">
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>7152</v>
+        <v>6955</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.02819505635597008</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.09110712860543675</v>
+        <v>0.08859868129971894</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>16</v>
@@ -7924,19 +7924,19 @@
         <v>16991</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>10316</v>
+        <v>10443</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>25934</v>
+        <v>26385</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.08317907850665476</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.05050198178074285</v>
+        <v>0.0511202402741904</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.1269540728748756</v>
+        <v>0.1291645141270846</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>18</v>
@@ -7945,19 +7945,19 @@
         <v>19205</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>12287</v>
+        <v>11688</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>29849</v>
+        <v>28736</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.06791452007228363</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.04345056102816704</v>
+        <v>0.04133135299191339</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.1055555392382041</v>
+        <v>0.1016198606123529</v>
       </c>
     </row>
     <row r="61">
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>7354</v>
+        <v>7457</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.01045929670818382</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.03600149730874501</v>
+        <v>0.03650230756817464</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>2</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>7648</v>
+        <v>7423</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.007555606880856237</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.02704444978555624</v>
+        <v>0.02624951133528154</v>
       </c>
     </row>
     <row r="62">
@@ -8037,19 +8037,19 @@
         <v>4307</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>9972</v>
+        <v>10399</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.05486581278857476</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.01361658842172923</v>
+        <v>0.01360063731196772</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.1270193127156354</v>
+        <v>0.1324603792494276</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>19</v>
@@ -8058,19 +8058,19 @@
         <v>21483</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>12999</v>
+        <v>13425</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>31816</v>
+        <v>32869</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.105169281334079</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.0636332317031874</v>
+        <v>0.06571838358873085</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.1557488574767762</v>
+        <v>0.1609057995064297</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>23</v>
@@ -8079,19 +8079,19 @@
         <v>25791</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>17200</v>
+        <v>16387</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>38017</v>
+        <v>37842</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.09120412918569548</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.06082556155665449</v>
+        <v>0.05794794769538308</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1344413583916786</v>
+        <v>0.1338213039328066</v>
       </c>
     </row>
     <row r="63">
@@ -8108,19 +8108,19 @@
         <v>6498</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>2223</v>
+        <v>2300</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>13348</v>
+        <v>13249</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.08277808202240294</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.02832125022361182</v>
+        <v>0.02930069837521274</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.1700245803471441</v>
+        <v>0.1687708181636544</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>21</v>
@@ -8129,19 +8129,19 @@
         <v>22986</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>15241</v>
+        <v>15207</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>34016</v>
+        <v>33932</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.1125258283430679</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.0746102497119923</v>
+        <v>0.07444133794993781</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.1665200995313084</v>
+        <v>0.1661093818640384</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>27</v>
@@ -8150,19 +8150,19 @@
         <v>29485</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>20547</v>
+        <v>20082</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>40776</v>
+        <v>41001</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.1042673162473503</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.07266209131900446</v>
+        <v>0.07101499698327282</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.1441967668108843</v>
+        <v>0.1449912028182371</v>
       </c>
     </row>
     <row r="64">
@@ -8179,19 +8179,19 @@
         <v>60308</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>51603</v>
+        <v>51029</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>67411</v>
+        <v>67495</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.7682079092078181</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.6573159379555693</v>
+        <v>0.6500121485735794</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.8586846168518376</v>
+        <v>0.859758796631402</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>112</v>
@@ -8200,19 +8200,19 @@
         <v>121986</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>107661</v>
+        <v>107646</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>136722</v>
+        <v>136094</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.5971672273564327</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.5270411073358653</v>
+        <v>0.5269676936761786</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.6693049741861453</v>
+        <v>0.6662292813353212</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>163</v>
@@ -8221,19 +8221,19 @@
         <v>182294</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>165540</v>
+        <v>164371</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>197535</v>
+        <v>197757</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.6446512123515653</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.5854034593524197</v>
+        <v>0.5812667354363169</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.6985477341867014</v>
+        <v>0.6993304203180659</v>
       </c>
     </row>
     <row r="65">
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>13</v>
@@ -8271,19 +8271,19 @@
         <v>13452</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>6989</v>
+        <v>7210</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>21014</v>
+        <v>22091</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.06585223176985452</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.03421571468444854</v>
+        <v>0.03529355681294702</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.1028732172481385</v>
+        <v>0.108144202905583</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>15</v>
@@ -8292,19 +8292,19 @@
         <v>15508</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>8412</v>
+        <v>8801</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>24297</v>
+        <v>23865</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.05483999817576393</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.02974746859713682</v>
+        <v>0.03112478587651611</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.08592308648504113</v>
+        <v>0.0843930657494288</v>
       </c>
     </row>
     <row r="66">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5753</v>
+        <v>5337</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1065409942717916</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5062111466870066</v>
+        <v>0.4696100070130287</v>
       </c>
     </row>
     <row r="7">
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4400</v>
+        <v>4267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1143171079749372</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6787399077189223</v>
+        <v>0.6581996771535946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4436</v>
+        <v>4882</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2818333646206167</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9085878841468096</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6279</v>
+        <v>6193</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1862721561947118</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5524751340992027</v>
+        <v>0.5449428926641054</v>
       </c>
     </row>
     <row r="9">
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5724</v>
+        <v>5628</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3764552280223228</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8828479185713995</v>
+        <v>0.868180956512637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6968</v>
+        <v>6809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2147523901763989</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6130961060482443</v>
+        <v>0.5990851561152358</v>
       </c>
     </row>
     <row r="11">
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5829</v>
+        <v>5804</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.50922766400274</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8990820182908181</v>
+        <v>0.8951936159895179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -9065,19 +9065,19 @@
         <v>5597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1686</v>
+        <v>1917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9259</v>
+        <v>9341</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4924344593570977</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1483258574169117</v>
+        <v>0.1686452066744134</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8147264180202652</v>
+        <v>0.8219306229604324</v>
       </c>
     </row>
     <row r="12">
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3797</v>
+        <v>3800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.187929779892063</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7825025705521552</v>
+        <v>0.7831735472343337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4176</v>
+        <v>4432</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09745939721550338</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4463126223124563</v>
+        <v>0.4736655216073475</v>
       </c>
     </row>
     <row r="18">
@@ -9467,7 +9467,7 @@
         <v>3940</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>4852</v>
@@ -9476,7 +9476,7 @@
         <v>0.8120702201079369</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2174974294478446</v>
+        <v>0.2168264527656659</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -9509,19 +9509,19 @@
         <v>5202</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1438</v>
+        <v>1319</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8287</v>
+        <v>8253</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5559776017911928</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.153725097269225</v>
+        <v>0.1409836470243318</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8857268323840375</v>
+        <v>0.882060610895964</v>
       </c>
     </row>
     <row r="20">
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7229</v>
+        <v>7096</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3465630009933037</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7726139425370836</v>
+        <v>0.7583962506927241</v>
       </c>
     </row>
     <row r="21">
@@ -9867,16 +9867,16 @@
         <v>902</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6598</v>
+        <v>6338</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2886874535858049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08643876183176774</v>
+        <v>0.08651349050340637</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6326145730626527</v>
+        <v>0.6076615722756239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6152</v>
+        <v>6153</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3586047356300235</v>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8462825084072382</v>
+        <v>0.8465375655147791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -9906,19 +9906,19 @@
         <v>5617</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1854</v>
+        <v>2311</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10109</v>
+        <v>10161</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.317403159323402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1047768428354729</v>
+        <v>0.130601691059265</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5711763351366554</v>
+        <v>0.574120381783076</v>
       </c>
     </row>
     <row r="27">
@@ -9982,7 +9982,7 @@
         <v>7419</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3832</v>
+        <v>4092</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9528</v>
@@ -9991,10 +9991,10 @@
         <v>0.7113125464141951</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3673854269373474</v>
+        <v>0.3923384277243759</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9135612381682322</v>
+        <v>0.9134865094965936</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -10003,19 +10003,19 @@
         <v>3556</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6126</v>
+        <v>6128</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4892469752363202</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1418025198948833</v>
+        <v>0.1405581635234999</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8427804193368843</v>
+        <v>0.8430605455589077</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -10024,19 +10024,19 @@
         <v>10975</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6805</v>
+        <v>6642</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14733</v>
+        <v>14512</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.620108062916648</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3845080850433044</v>
+        <v>0.375295334519692</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8324710539211024</v>
+        <v>0.8200057973747156</v>
       </c>
     </row>
     <row r="29">
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4572</v>
+        <v>4734</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1521482891336563</v>
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.628975301245991</v>
+        <v>0.6512405158956691</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5300</v>
+        <v>5247</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06248877775994995</v>
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2994915993528854</v>
+        <v>0.2964632228613019</v>
       </c>
     </row>
     <row r="30">
@@ -10285,19 +10285,19 @@
         <v>2445</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5879</v>
+        <v>6606</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09917090098680105</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03155602321982053</v>
+        <v>0.03166500486906834</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2384065659277127</v>
+        <v>0.2679082796332484</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8291</v>
+        <v>7889</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07768953321079433</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3792844918467196</v>
+        <v>0.3608880602274691</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4</v>
@@ -10327,19 +10327,19 @@
         <v>4144</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1545</v>
+        <v>842</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>10111</v>
+        <v>10554</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08907670267900079</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03321090262273776</v>
+        <v>0.01810687250828838</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2173528267212002</v>
+        <v>0.22687141357631</v>
       </c>
     </row>
     <row r="34">
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5802</v>
+        <v>5366</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07002480043597382</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2352959964661838</v>
+        <v>0.2176257860767184</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -10424,19 +10424,19 @@
         <v>5095</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10696</v>
+        <v>10457</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2330778864865581</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05720004791341773</v>
+        <v>0.05747784111071391</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4893218950203869</v>
+        <v>0.4783990164021319</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -10445,19 +10445,19 @@
         <v>6822</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2753</v>
+        <v>2807</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13177</v>
+        <v>12442</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1466442318639747</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05918133125911247</v>
+        <v>0.06033953936111315</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2832721663914005</v>
+        <v>0.2674734966868566</v>
       </c>
     </row>
     <row r="36">
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3985</v>
+        <v>3919</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03250442573213388</v>
@@ -10486,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1615920333863252</v>
+        <v>0.1589123323806372</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3924</v>
+        <v>3640</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01723043933412632</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08435019196971366</v>
+        <v>0.07825650343853728</v>
       </c>
     </row>
     <row r="37">
@@ -10537,19 +10537,19 @@
         <v>17948</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13489</v>
+        <v>13504</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21400</v>
+        <v>21439</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7278368635130756</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5470290142555057</v>
+        <v>0.5476195289098682</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8678469429090345</v>
+        <v>0.8694062258120655</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -10558,19 +10558,19 @@
         <v>11326</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5643</v>
+        <v>6126</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16556</v>
+        <v>16821</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5181588922727457</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2581695842116521</v>
+        <v>0.2802294270889977</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7573870254842536</v>
+        <v>0.7695076525676403</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>28</v>
@@ -10579,19 +10579,19 @@
         <v>29274</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22611</v>
+        <v>22484</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>35525</v>
+        <v>35302</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6293081736946762</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4860700358682396</v>
+        <v>0.4833373813710602</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7636767522373552</v>
+        <v>0.7588965272377213</v>
       </c>
     </row>
     <row r="38">
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5323</v>
+        <v>5329</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.07046300933201564</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2158441880284279</v>
+        <v>0.2160981123450317</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -10629,19 +10629,19 @@
         <v>3739</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1126</v>
+        <v>1183</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>8989</v>
+        <v>9251</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.171073688029902</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05152426744793632</v>
+        <v>0.05413357611106492</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4112269579820317</v>
+        <v>0.4231906922466709</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -10650,19 +10650,19 @@
         <v>5477</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1829</v>
+        <v>2116</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11134</v>
+        <v>11779</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.117740452428222</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03931927316109998</v>
+        <v>0.04548676443903516</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2393578232072411</v>
+        <v>0.2532223201025032</v>
       </c>
     </row>
     <row r="39">
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5522</v>
+        <v>5936</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06857408634365011</v>
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2151032785510477</v>
+        <v>0.2312094606242715</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7770</v>
+        <v>6050</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03369093419492969</v>
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2172468340159502</v>
+        <v>0.169142568466467</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -10890,19 +10890,19 @@
         <v>2966</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>8156</v>
+        <v>8374</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04826711454872801</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01301470626000222</v>
+        <v>0.01314019502470492</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1327465606579049</v>
+        <v>0.1362999016407828</v>
       </c>
     </row>
     <row r="43">
@@ -10966,19 +10966,19 @@
         <v>3356</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7228</v>
+        <v>7674</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1307055964416258</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03233917916341769</v>
+        <v>0.03178977093814502</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2815526535830292</v>
+        <v>0.2989267429460027</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>8882</v>
+        <v>7712</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07194070254531616</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2483337476170486</v>
+        <v>0.2156227216160714</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6</v>
@@ -11008,19 +11008,19 @@
         <v>5929</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2189</v>
+        <v>2121</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11502</v>
+        <v>12121</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.09649604342312879</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03562985294687163</v>
+        <v>0.03452510144829705</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1872140310431248</v>
+        <v>0.1972776815274456</v>
       </c>
     </row>
     <row r="45">
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>6445</v>
+        <v>6570</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.07928917180333206</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.251045568043742</v>
+        <v>0.2559158778673835</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>5635</v>
+        <v>6514</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03553769429408637</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1575388246201491</v>
+        <v>0.182112860024558</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>3</v>
@@ -11079,19 +11079,19 @@
         <v>3307</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>9590</v>
+        <v>9380</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.05381956928637572</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01220918313356947</v>
+        <v>0.01198326799842308</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1560860563837671</v>
+        <v>0.152661835927468</v>
       </c>
     </row>
     <row r="46">
@@ -11108,19 +11108,19 @@
         <v>17729</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>13209</v>
+        <v>12971</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>21581</v>
+        <v>21670</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.6905613990089989</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5144918472446193</v>
+        <v>0.5052433181495279</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.840604359428646</v>
+        <v>0.8440741221085593</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -11129,19 +11129,19 @@
         <v>23936</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>17159</v>
+        <v>17369</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>29328</v>
+        <v>29776</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.669215525862545</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.4797363583557929</v>
+        <v>0.485601476348499</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.8199643086302857</v>
+        <v>0.8324867720047505</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>39</v>
@@ -11150,19 +11150,19 @@
         <v>41665</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>34154</v>
+        <v>33459</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>48827</v>
+        <v>48241</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.6781350551374653</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5558900325373114</v>
+        <v>0.5445815629484874</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.7947117611743116</v>
+        <v>0.7851767021948449</v>
       </c>
     </row>
     <row r="47">
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3384</v>
+        <v>3591</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03086974640239308</v>
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1318110043422403</v>
+        <v>0.1398667934565861</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -11200,19 +11200,19 @@
         <v>6782</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3103</v>
+        <v>2628</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>13018</v>
+        <v>13819</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1896151431031229</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.08676537800553231</v>
+        <v>0.07348740842665541</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3639639946716743</v>
+        <v>0.3863713443576579</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>7</v>
@@ -11221,19 +11221,19 @@
         <v>7574</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3387</v>
+        <v>3288</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>13806</v>
+        <v>14293</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1232822176043022</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05512886776066932</v>
+        <v>0.05351993766649945</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2247024837935976</v>
+        <v>0.2326371301012503</v>
       </c>
     </row>
     <row r="48">
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>8511</v>
+        <v>7470</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02532043697648324</v>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.08838691697082136</v>
+        <v>0.07757369053892801</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2</v>
@@ -11401,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>8511</v>
+        <v>7470</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02532043697648324</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.08838691697082136</v>
+        <v>0.07757369053892801</v>
       </c>
     </row>
     <row r="51">
@@ -11436,19 +11436,19 @@
         <v>3654</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>1144</v>
+        <v>1163</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>11018</v>
+        <v>11054</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.03794822942855298</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.01187479446680906</v>
+        <v>0.01207847847925729</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.1144173190181312</v>
+        <v>0.114784980054458</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>3</v>
@@ -11457,19 +11457,19 @@
         <v>3654</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>1144</v>
+        <v>1163</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>11018</v>
+        <v>11054</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.03794822942855298</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01187479446680906</v>
+        <v>0.01207847847925729</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.1144173190181312</v>
+        <v>0.114784980054458</v>
       </c>
     </row>
     <row r="52">
@@ -11538,19 +11538,19 @@
         <v>12479</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>5786</v>
+        <v>6413</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>22229</v>
+        <v>22468</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.129591675272607</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.06008260432295907</v>
+        <v>0.06659135249742196</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2308370764049414</v>
+        <v>0.2333177412966065</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>9</v>
@@ -11559,19 +11559,19 @@
         <v>12479</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>5786</v>
+        <v>6413</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>22229</v>
+        <v>22468</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.129591675272607</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.06008260432295907</v>
+        <v>0.06659135249742196</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2308370764049414</v>
+        <v>0.2333177412966065</v>
       </c>
     </row>
     <row r="54">
@@ -11597,19 +11597,19 @@
         <v>5068</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1290</v>
+        <v>1314</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>11951</v>
+        <v>11823</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.05262934674683095</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01339996542367465</v>
+        <v>0.01364294744915396</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1241031556819821</v>
+        <v>0.1227745838430303</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>4</v>
@@ -11618,19 +11618,19 @@
         <v>5068</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1290</v>
+        <v>1314</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>11951</v>
+        <v>11823</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.05262934674683095</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01339996542367465</v>
+        <v>0.01364294744915396</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1241031556819821</v>
+        <v>0.1227745838430303</v>
       </c>
     </row>
     <row r="55">
@@ -11656,19 +11656,19 @@
         <v>61210</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>49777</v>
+        <v>49726</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>71026</v>
+        <v>71401</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.6356320573130976</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.5169060573789701</v>
+        <v>0.5163781978269324</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.7375630834207513</v>
+        <v>0.7414590187318537</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>49</v>
@@ -11677,19 +11677,19 @@
         <v>61210</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>49777</v>
+        <v>49726</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>71026</v>
+        <v>71401</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.6356320573130976</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.5169060573789701</v>
+        <v>0.5163781978269324</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.7375630834207513</v>
+        <v>0.7414590187318537</v>
       </c>
     </row>
     <row r="56">
@@ -11715,19 +11715,19 @@
         <v>11448</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>5518</v>
+        <v>5506</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>19345</v>
+        <v>19957</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1188782542624283</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.05730378053533718</v>
+        <v>0.05717884214166059</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.200890166433168</v>
+        <v>0.207244711581529</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>10</v>
@@ -11736,19 +11736,19 @@
         <v>11448</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5518</v>
+        <v>5506</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>19345</v>
+        <v>19957</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1188782542624283</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.05730378053533718</v>
+        <v>0.05717884214166059</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.200890166433168</v>
+        <v>0.207244711581529</v>
       </c>
     </row>
     <row r="57">
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>7411</v>
+        <v>9850</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01429432629186676</v>
@@ -11900,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.04344417482168129</v>
+        <v>0.05774246350568071</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>2</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>8279</v>
+        <v>8534</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.01004759829615704</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.03411548873745043</v>
+        <v>0.03516451600881093</v>
       </c>
     </row>
     <row r="60">
@@ -11938,19 +11938,19 @@
         <v>4206</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>8751</v>
+        <v>9046</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.05833793241762878</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.02214456964967699</v>
+        <v>0.02221541278396244</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.1213718196971734</v>
+        <v>0.1254732645850176</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>6</v>
@@ -11959,19 +11959,19 @@
         <v>7768</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>3405</v>
+        <v>3543</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>15647</v>
+        <v>15353</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.04554135663606002</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.01996137737109133</v>
+        <v>0.02076824688853838</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.0917270498818344</v>
+        <v>0.09000719816108645</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>11</v>
@@ -11980,19 +11980,19 @@
         <v>11974</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>5931</v>
+        <v>6686</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>21048</v>
+        <v>21083</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.04934311514577934</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.02443949403999987</v>
+        <v>0.02755301270961524</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.08673147893193245</v>
+        <v>0.0868768344627372</v>
       </c>
     </row>
     <row r="61">
@@ -12056,19 +12056,19 @@
         <v>9746</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.1351821428706154</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>18</v>
@@ -12077,19 +12077,19 @@
         <v>24130</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>14428</v>
+        <v>15460</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>36036</v>
+        <v>37307</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.1414588666716622</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.0845838658040636</v>
+        <v>0.09063043847903544</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.2112582058636416</v>
+        <v>0.2187088656641395</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>29</v>
@@ -12098,19 +12098,19 @@
         <v>33876</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>23660</v>
+        <v>23649</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>48208</v>
+        <v>47948</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.1395941031184187</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.09749502578732101</v>
+        <v>0.09745126057925158</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1986523740478175</v>
+        <v>0.1975825403466388</v>
       </c>
     </row>
     <row r="63">
@@ -12130,16 +12130,16 @@
         <v>741</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>8492</v>
+        <v>8605</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.03935172030404811</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.01028429901579257</v>
+        <v>0.01027634499372077</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.1177816731560914</v>
+        <v>0.1193470203408773</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>5</v>
@@ -12148,19 +12148,19 @@
         <v>6339</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>2472</v>
+        <v>2483</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>14147</v>
+        <v>14400</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.03716276084455715</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01449381086774022</v>
+        <v>0.01455408872271199</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.08293385255610117</v>
+        <v>0.08442107146065968</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>8</v>
@@ -12169,19 +12169,19 @@
         <v>9176</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>4572</v>
+        <v>3772</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>17767</v>
+        <v>16637</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.03781308288340575</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01884065637862205</v>
+        <v>0.01554343461394657</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.0732113229175668</v>
+        <v>0.06855628555528033</v>
       </c>
     </row>
     <row r="64">
@@ -12198,19 +12198,19 @@
         <v>49476</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>41807</v>
+        <v>41406</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>56824</v>
+        <v>55912</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.6862451308847953</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.5798710806798869</v>
+        <v>0.5743126738752284</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.7881627857194959</v>
+        <v>0.7755113083280597</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>81</v>
@@ -12219,19 +12219,19 @@
         <v>101290</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>87135</v>
+        <v>86158</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>115049</v>
+        <v>115178</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.5938040580272722</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.5108225675153316</v>
+        <v>0.5050958207544674</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.6744629732191849</v>
+        <v>0.6752216861403507</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>135</v>
@@ -12240,19 +12240,19 @@
         <v>150766</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>132816</v>
+        <v>133820</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>166080</v>
+        <v>165484</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.6212675483689508</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.5473007880788066</v>
+        <v>0.5514351924576167</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.6843729339482616</v>
+        <v>0.6819157359239562</v>
       </c>
     </row>
     <row r="65">
@@ -12269,19 +12269,19 @@
         <v>5831</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.08088307352291238</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>24</v>
@@ -12290,19 +12290,19 @@
         <v>28613</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>19624</v>
+        <v>18698</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>40602</v>
+        <v>41211</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.1677386315285817</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.1150434525273444</v>
+        <v>0.1096179377649078</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.2380284528426549</v>
+        <v>0.2415965100704375</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>29</v>
@@ -12311,19 +12311,19 @@
         <v>34444</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>24247</v>
+        <v>24173</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>49195</v>
+        <v>47392</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.1419345521872883</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.09991359552851507</v>
+        <v>0.09961008119440255</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.2027213919187699</v>
+        <v>0.1952903926016891</v>
       </c>
     </row>
     <row r="66">
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2315</v>
+        <v>2553</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1285293546623511</v>
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3916005495848945</v>
+        <v>0.4318296752301219</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2685</v>
+        <v>2325</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06178867288018036</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2183521336805951</v>
+        <v>0.1890894379292464</v>
       </c>
     </row>
     <row r="6">
@@ -12770,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2615</v>
+        <v>2604</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1035554039086685</v>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4422883395866308</v>
+        <v>0.4404878065425689</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -12791,16 +12791,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2968</v>
+        <v>2911</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1047083691048457</v>
+        <v>0.1047083691048456</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4648328316596378</v>
+        <v>0.4558550125279889</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -12812,16 +12812,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3761</v>
+        <v>4004</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1041540973625189</v>
+        <v>0.104154097362519</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3057871455660729</v>
+        <v>0.3255429807158046</v>
       </c>
     </row>
     <row r="7">
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2427</v>
+        <v>2391</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08802162682755058</v>
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4105239675752182</v>
+        <v>0.4044101104469126</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -12969,16 +12969,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2710</v>
+        <v>2802</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04231515454750779</v>
+        <v>0.0423151545475078</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2203563313168411</v>
+        <v>0.2278414139701011</v>
       </c>
     </row>
     <row r="10">
@@ -12995,19 +12995,19 @@
         <v>3410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1469</v>
+        <v>1443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5046</v>
+        <v>5070</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5768219328047498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2484767737876329</v>
+        <v>0.2440045080121661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8534347355054485</v>
+        <v>0.8575997736214134</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -13016,16 +13016,16 @@
         <v>5107</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2784</v>
+        <v>3105</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>6386</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7996976331379195</v>
+        <v>0.7996976331379194</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4359442792062665</v>
+        <v>0.486205114175052</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -13037,19 +13037,19 @@
         <v>8517</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6093</v>
+        <v>5731</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10615</v>
+        <v>10653</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6925532864086877</v>
+        <v>0.692553286408688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4954707681280268</v>
+        <v>0.4659968331396115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8631425863782323</v>
+        <v>0.8662601062758191</v>
       </c>
     </row>
     <row r="11">
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3080</v>
+        <v>2497</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1030716817966799</v>
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5210025929130339</v>
+        <v>0.4223050561964903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -13090,16 +13090,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2527</v>
+        <v>2503</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09559399775723491</v>
+        <v>0.0955939977572349</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3956736049610173</v>
+        <v>0.3919243772735281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -13111,16 +13111,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>3547</v>
+        <v>4208</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09918878880110488</v>
+        <v>0.09918878880110489</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2884369492331561</v>
+        <v>0.3421349160667955</v>
       </c>
     </row>
     <row r="12">
@@ -13262,16 +13262,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2868</v>
+        <v>3013</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07694849233776224</v>
+        <v>0.07694849233776226</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3206254041663116</v>
+        <v>0.3368526790098374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2290</v>
+        <v>2634</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0501274529666594</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2365515044122488</v>
+        <v>0.272144659745075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -13304,16 +13304,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3817</v>
+        <v>3807</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06300890639727058</v>
+        <v>0.06300890639727059</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2049682663556065</v>
+        <v>0.2044100476948224</v>
       </c>
     </row>
     <row r="15">
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2203</v>
+        <v>2727</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05403763890040267</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2463463306751591</v>
+        <v>0.3048837899873793</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3632</v>
+        <v>3086</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1072133136924496</v>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3752009268476359</v>
+        <v>0.3188122533986317</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -13372,19 +13372,19 @@
         <v>1521</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4447</v>
+        <v>4159</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.08167440861880508</v>
+        <v>0.08167440861880511</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0232021403722427</v>
+        <v>0.02113932553809786</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2387883602135478</v>
+        <v>0.2233092716711034</v>
       </c>
     </row>
     <row r="16">
@@ -13451,16 +13451,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2739</v>
+        <v>2618</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0672492433014005</v>
+        <v>0.06724924330140052</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3062344779045698</v>
+        <v>0.2927472331833779</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -13485,16 +13485,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3053</v>
+        <v>2657</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03229807703739302</v>
+        <v>0.03229807703739303</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1639437442246462</v>
+        <v>0.1426518060852523</v>
       </c>
     </row>
     <row r="18">
@@ -13514,16 +13514,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2574</v>
+        <v>2638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06706661746866313</v>
+        <v>0.06706661746866314</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2878369538925272</v>
+        <v>0.2949372710601309</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3798</v>
+        <v>3758</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1325273271809356</v>
@@ -13544,7 +13544,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3923502447343827</v>
+        <v>0.3882220868135182</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -13553,19 +13553,19 @@
         <v>1883</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4627</v>
+        <v>4590</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1010882366958035</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03096598031372216</v>
+        <v>0.03123250086188608</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.248441197484108</v>
+        <v>0.2464792762328762</v>
       </c>
     </row>
     <row r="19">
@@ -13582,19 +13582,19 @@
         <v>5406</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2745</v>
+        <v>2921</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7379</v>
+        <v>7416</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.60447475974916</v>
+        <v>0.6044747597491602</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3069503058253672</v>
+        <v>0.3265900706349565</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8249989026183934</v>
+        <v>0.8291101022122424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -13603,19 +13603,19 @@
         <v>5177</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2717</v>
+        <v>2867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7494</v>
+        <v>7177</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5348262729104865</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2806630918845219</v>
+        <v>0.2962068500293297</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7742238269223949</v>
+        <v>0.7415349999374997</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -13624,19 +13624,19 @@
         <v>10583</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7144</v>
+        <v>7022</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13794</v>
+        <v>13559</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.568276644736551</v>
+        <v>0.5682766447365513</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3836107102872981</v>
+        <v>0.3770835480352316</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7406783405545554</v>
+        <v>0.7280655462482383</v>
       </c>
     </row>
     <row r="20">
@@ -13656,16 +13656,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4074</v>
+        <v>3658</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1302232482426113</v>
+        <v>0.1302232482426114</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4555094986382672</v>
+        <v>0.4090321504855144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -13674,19 +13674,19 @@
         <v>1697</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4052</v>
+        <v>4038</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1753056332494689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04214582548440722</v>
+        <v>0.0431909077267207</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4185886419516308</v>
+        <v>0.4171899385120726</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -13695,19 +13695,19 @@
         <v>2861</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>842</v>
+        <v>1067</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5552</v>
+        <v>6205</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1536537265141767</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04519905255549272</v>
+        <v>0.05730209544984267</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2981492312763644</v>
+        <v>0.3331702762248837</v>
       </c>
     </row>
     <row r="21">
@@ -13815,16 +13815,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3010</v>
+        <v>2734</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02709638306131519</v>
+        <v>0.02709638306131518</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1451194556402087</v>
+        <v>0.1318196228672649</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -13836,16 +13836,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2518</v>
+        <v>2849</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01606272889775093</v>
+        <v>0.01606272889775092</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07197036539398095</v>
+        <v>0.08142516450455643</v>
       </c>
     </row>
     <row r="23">
@@ -13862,19 +13862,19 @@
         <v>2023</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4948</v>
+        <v>5194</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1419821739365432</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04498982654597776</v>
+        <v>0.04426376277010336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3472203591881074</v>
+        <v>0.3645400905832063</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -13886,16 +13886,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2770</v>
+        <v>3222</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.02962660973663765</v>
+        <v>0.02962660973663764</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1335331331854787</v>
+        <v>0.1553262790588411</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -13904,19 +13904,19 @@
         <v>2638</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6157</v>
+        <v>6491</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.07537782442564821</v>
+        <v>0.07537782442564819</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01868729778978074</v>
+        <v>0.01897484098424469</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1759429894289982</v>
+        <v>0.1855007275577447</v>
       </c>
     </row>
     <row r="24">
@@ -13933,19 +13933,19 @@
         <v>3957</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1484</v>
+        <v>1896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6954</v>
+        <v>7309</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2776709823635735</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1041806577240101</v>
+        <v>0.1330575604592075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4880518207860945</v>
+        <v>0.5129608660786908</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -13954,19 +13954,19 @@
         <v>4670</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2053</v>
+        <v>2067</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8752</v>
+        <v>8445</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2251095519013183</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09897630395627129</v>
+        <v>0.09965266670482625</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4219282147647185</v>
+        <v>0.4070889138996176</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -13975,19 +13975,19 @@
         <v>8626</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5054</v>
+        <v>4847</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13014</v>
+        <v>13377</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2465125799272517</v>
+        <v>0.2465125799272516</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.144420764778452</v>
+        <v>0.1385118279718554</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3719112097272203</v>
+        <v>0.3822864758235526</v>
       </c>
     </row>
     <row r="25">
@@ -14020,16 +14020,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2323</v>
+        <v>2347</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02088557628455489</v>
+        <v>0.02088557628455488</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1119809567902361</v>
+        <v>0.1131207288749386</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2184</v>
+        <v>2306</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01238096424061322</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06240370239911167</v>
+        <v>0.06589754710094663</v>
       </c>
     </row>
     <row r="26">
@@ -14070,16 +14070,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2411</v>
+        <v>2368</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04824364906273419</v>
+        <v>0.04824364906273421</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1691926784388642</v>
+        <v>0.1661708886767124</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -14088,19 +14088,19 @@
         <v>2015</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>624</v>
+        <v>472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4572</v>
+        <v>4906</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09714032567999757</v>
+        <v>0.09714032567999756</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03005935625296124</v>
+        <v>0.02276475707157037</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2204196707780696</v>
+        <v>0.2365164921796332</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -14109,19 +14109,19 @@
         <v>2702</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1089</v>
+        <v>966</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>5766</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.07722958636391644</v>
+        <v>0.0772295863639164</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03113222754072716</v>
+        <v>0.02761645037382603</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1647724518888835</v>
+        <v>0.1647739029707337</v>
       </c>
     </row>
     <row r="27">
@@ -14141,16 +14141,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3312</v>
+        <v>3253</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04555160915949414</v>
+        <v>0.04555160915949415</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2324650583846082</v>
+        <v>0.2283070051706475</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -14159,19 +14159,19 @@
         <v>2078</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6056</v>
+        <v>5817</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1001500301997361</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02374282020792079</v>
+        <v>0.02348394993068629</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2919345394566267</v>
+        <v>0.2803966002030627</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -14180,19 +14180,19 @@
         <v>2727</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>658</v>
+        <v>995</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6210</v>
+        <v>7280</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.07791753908564494</v>
+        <v>0.0779175390856449</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01881656845596279</v>
+        <v>0.02842033754176328</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1774509030379373</v>
+        <v>0.2080388583165157</v>
       </c>
     </row>
     <row r="28">
@@ -14209,19 +14209,19 @@
         <v>6933</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3906</v>
+        <v>3951</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9701</v>
+        <v>9923</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.4865515854776549</v>
+        <v>0.486551585477655</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2741181157945048</v>
+        <v>0.2773121509180799</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6808330775597711</v>
+        <v>0.6963731506592253</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -14230,19 +14230,19 @@
         <v>10372</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6818</v>
+        <v>6987</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13863</v>
+        <v>13742</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4999915231364405</v>
+        <v>0.4999915231364403</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3286768564426352</v>
+        <v>0.336817516782409</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6682857292024772</v>
+        <v>0.6624627308017439</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>30</v>
@@ -14251,19 +14251,19 @@
         <v>17305</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12612</v>
+        <v>12450</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21824</v>
+        <v>21783</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4945187770591747</v>
+        <v>0.4945187770591745</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3604088934299534</v>
+        <v>0.3557867705584362</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6236611873787306</v>
+        <v>0.6224931093962772</v>
       </c>
     </row>
     <row r="29">
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5348</v>
+        <v>5027</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01837665166167286</v>
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09785657222101028</v>
+        <v>0.09197814550589659</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -14426,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2124</v>
+        <v>2100</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01377690284394662</v>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.070474450824906</v>
+        <v>0.06967248705073446</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5162</v>
+        <v>6679</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01674172995999117</v>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06088309063668455</v>
+        <v>0.07877946282694578</v>
       </c>
     </row>
     <row r="32">
@@ -14473,19 +14473,19 @@
         <v>2825</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>947</v>
+        <v>994</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7126</v>
+        <v>6920</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05168371870782982</v>
+        <v>0.05168371870782983</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0173275250704198</v>
+        <v>0.01818289626727664</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1303851555472212</v>
+        <v>0.1266272510173803</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -14497,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3825</v>
+        <v>3829</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03656071140145772</v>
@@ -14506,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.126939008873433</v>
+        <v>0.1270686566305038</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -14515,19 +14515,19 @@
         <v>3926</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1653</v>
+        <v>1520</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8512</v>
+        <v>7380</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.04630843979159964</v>
+        <v>0.04630843979159965</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01949051569064069</v>
+        <v>0.01793094688478498</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1003940828987619</v>
+        <v>0.08704729018160649</v>
       </c>
     </row>
     <row r="33">
@@ -14544,19 +14544,19 @@
         <v>7850</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4187</v>
+        <v>4115</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>13206</v>
+        <v>13500</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.143644044743056</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07661203134411766</v>
+        <v>0.07528900981229694</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2416547058133538</v>
+        <v>0.2470346424446987</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>9</v>
@@ -14565,19 +14565,19 @@
         <v>4847</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2306</v>
+        <v>2502</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8284</v>
+        <v>8533</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1608417142344621</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07653292855367771</v>
+        <v>0.08302994147407869</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2748839310881663</v>
+        <v>0.2831332288266628</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>21</v>
@@ -14586,19 +14586,19 @@
         <v>12697</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8437</v>
+        <v>7728</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>18489</v>
+        <v>18754</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.149756735714679</v>
+        <v>0.1497567357146791</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09950950039940877</v>
+        <v>0.09114640203728931</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2180708552329132</v>
+        <v>0.22119223803745</v>
       </c>
     </row>
     <row r="34">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4375</v>
+        <v>4367</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02275187099076279</v>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08005081733062724</v>
+        <v>0.07990569359988615</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -14636,19 +14636,19 @@
         <v>1858</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4245</v>
+        <v>4769</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0616433932428536</v>
+        <v>0.06164339324285362</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0195614228575654</v>
+        <v>0.02009783589612465</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1408614796020295</v>
+        <v>0.1582560255536107</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -14657,19 +14657,19 @@
         <v>3101</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1173</v>
+        <v>972</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6284</v>
+        <v>6700</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.03657536359025891</v>
+        <v>0.03657536359025892</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01383531872977458</v>
+        <v>0.01146233902514982</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07411396490917672</v>
+        <v>0.07901928693720919</v>
       </c>
     </row>
     <row r="35">
@@ -14686,19 +14686,19 @@
         <v>2414</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6454</v>
+        <v>6845</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04417662257351249</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009554454433650996</v>
+        <v>0.009192864266036677</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.118097391833702</v>
+        <v>0.1252535681912111</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -14707,19 +14707,19 @@
         <v>1226</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3364</v>
+        <v>3488</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04068083591412661</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009121123112594125</v>
+        <v>0.009273261794951746</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1116159141091581</v>
+        <v>0.1157453922902055</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -14728,19 +14728,19 @@
         <v>3640</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1414</v>
+        <v>1252</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7991</v>
+        <v>7453</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04293409005698595</v>
+        <v>0.04293409005698597</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01667645133458323</v>
+        <v>0.01476246939694574</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09425049157369189</v>
+        <v>0.08790601696306906</v>
       </c>
     </row>
     <row r="36">
@@ -14757,19 +14757,19 @@
         <v>3129</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>911</v>
+        <v>1002</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7794</v>
+        <v>8148</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.05725237257011624</v>
+        <v>0.05725237257011625</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01667870541210245</v>
+        <v>0.01833318545800577</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1426254429031868</v>
+        <v>0.1490919379626337</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -14778,19 +14778,19 @@
         <v>1890</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>464</v>
+        <v>651</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4520</v>
+        <v>5128</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.06270566151863545</v>
+        <v>0.06270566151863546</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01538214289329837</v>
+        <v>0.02161042799821757</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.149974402881666</v>
+        <v>0.1701693060155342</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -14799,19 +14799,19 @@
         <v>5019</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2217</v>
+        <v>2207</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9901</v>
+        <v>9517</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.05919067416021964</v>
+        <v>0.05919067416021966</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02614887685181903</v>
+        <v>0.02602924796074869</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1167713185045459</v>
+        <v>0.1122501815186524</v>
       </c>
     </row>
     <row r="37">
@@ -14828,19 +14828,19 @@
         <v>33850</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>27295</v>
+        <v>27392</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39618</v>
+        <v>39740</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6193906677922784</v>
+        <v>0.6193906677922785</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4994533373205913</v>
+        <v>0.5012194464926422</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7249328890589206</v>
+        <v>0.7271795616478014</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -14849,19 +14849,19 @@
         <v>17621</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13411</v>
+        <v>13228</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21559</v>
+        <v>21108</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.584713676243549</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4450311402249793</v>
+        <v>0.4389337536308532</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.715391219465106</v>
+        <v>0.700426252545666</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>84</v>
@@ -14870,19 +14870,19 @@
         <v>51471</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>44504</v>
+        <v>43935</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>58382</v>
+        <v>58379</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6070651760581285</v>
+        <v>0.6070651760581287</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.52489648752407</v>
+        <v>0.5181817743173919</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6885818479305092</v>
+        <v>0.6885470488566098</v>
       </c>
     </row>
     <row r="38">
@@ -14899,19 +14899,19 @@
         <v>2335</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>646</v>
+        <v>598</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6350</v>
+        <v>5850</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04272405096077142</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01182687140643042</v>
+        <v>0.01093402245657126</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1162011283671836</v>
+        <v>0.107050883793048</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -14923,16 +14923,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>4036</v>
+        <v>3934</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.03907710460096899</v>
+        <v>0.039077104600969</v>
       </c>
       <c r="O38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.133913240118336</v>
+        <v>0.13052718641403</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -14941,19 +14941,19 @@
         <v>3512</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1456</v>
+        <v>1372</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7404</v>
+        <v>7427</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04142779066813713</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01717563688506597</v>
+        <v>0.01618005767034327</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08732511568953059</v>
+        <v>0.08759910510387618</v>
       </c>
     </row>
     <row r="39">
@@ -15048,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3872</v>
+        <v>4034</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06115778974038168</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.206338747115237</v>
+        <v>0.2149851830901291</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -15066,19 +15066,19 @@
         <v>4228</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1726</v>
+        <v>1757</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8488</v>
+        <v>8409</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04704826150465215</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01921272405445752</v>
+        <v>0.01955184771981426</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09446166617654048</v>
+        <v>0.09357677568907431</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -15087,19 +15087,19 @@
         <v>5375</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2481</v>
+        <v>2749</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9785</v>
+        <v>9948</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04948546287468501</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02284053610801267</v>
+        <v>0.02530821105394647</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09008155474455307</v>
+        <v>0.0915782174016415</v>
       </c>
     </row>
     <row r="41">
@@ -15116,19 +15116,19 @@
         <v>1795</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4504</v>
+        <v>4803</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09566542168976797</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02790892104096279</v>
+        <v>0.02831928737687128</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2400266353046104</v>
+        <v>0.2560009575706816</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -15137,19 +15137,19 @@
         <v>4798</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2227</v>
+        <v>2373</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8441</v>
+        <v>8691</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05339276589338956</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02477782461225897</v>
+        <v>0.02640271920366625</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09393199491957772</v>
+        <v>0.09671850848702811</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>13</v>
@@ -15158,19 +15158,19 @@
         <v>6593</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3578</v>
+        <v>3755</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10908</v>
+        <v>10833</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.06069470915475003</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03294207873590554</v>
+        <v>0.03456625337504421</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1004182379653133</v>
+        <v>0.09972857588451503</v>
       </c>
     </row>
     <row r="42">
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4009</v>
+        <v>4096</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07303578050572639</v>
@@ -15199,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2136818182864099</v>
+        <v>0.2182889094454483</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>39</v>
@@ -15208,19 +15208,19 @@
         <v>17039</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>12353</v>
+        <v>12478</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22887</v>
+        <v>23123</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1896209247769013</v>
+        <v>0.1896209247769014</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.137465404956791</v>
+        <v>0.1388612226075041</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2546988105516029</v>
+        <v>0.2573213152710434</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>41</v>
@@ -15229,19 +15229,19 @@
         <v>18410</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>13403</v>
+        <v>13492</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>24207</v>
+        <v>24581</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1694826558995867</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1233896294076078</v>
+        <v>0.1242104963593528</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2228506322925657</v>
+        <v>0.2262962703314982</v>
       </c>
     </row>
     <row r="43">
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>4179</v>
+        <v>4214</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04827296421780072</v>
@@ -15270,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2227185617968562</v>
+        <v>0.2246086690757758</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -15279,19 +15279,19 @@
         <v>1136</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2913</v>
+        <v>3370</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01263757525458361</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.003684186668980142</v>
+        <v>0.003729386420953867</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03241320165701077</v>
+        <v>0.03749783791356261</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4</v>
@@ -15300,19 +15300,19 @@
         <v>2041</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>662</v>
+        <v>472</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>5362</v>
+        <v>5366</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0187930339879858</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.006095086784215354</v>
+        <v>0.004343496700742363</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0493595763984987</v>
+        <v>0.04939896457855319</v>
       </c>
     </row>
     <row r="44">
@@ -15342,19 +15342,19 @@
         <v>5650</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2908</v>
+        <v>3039</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9515</v>
+        <v>9890</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.06287286375299417</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03236626129880288</v>
+        <v>0.03382006626198186</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1058860990818367</v>
+        <v>0.1100632647388147</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>12</v>
@@ -15363,19 +15363,19 @@
         <v>5650</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2932</v>
+        <v>2957</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>9864</v>
+        <v>9601</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.0520125552354739</v>
+        <v>0.05201255523547391</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02698910277793493</v>
+        <v>0.02722081638337574</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09080859941315442</v>
+        <v>0.08838473194444117</v>
       </c>
     </row>
     <row r="45">
@@ -15395,7 +15395,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>3270</v>
+        <v>3073</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.05321320243909577</v>
@@ -15404,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1742999075959092</v>
+        <v>0.163792381039476</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>11</v>
@@ -15413,19 +15413,19 @@
         <v>5301</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2599</v>
+        <v>2635</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9630</v>
+        <v>9715</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.05899365455171423</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02892715739195422</v>
+        <v>0.02931852794382898</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.107167698044191</v>
+        <v>0.1081157219975106</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>13</v>
@@ -15434,19 +15434,19 @@
         <v>6300</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>3505</v>
+        <v>3264</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>10675</v>
+        <v>10630</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.05799517142932267</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03226810476615982</v>
+        <v>0.03004725488086593</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.09827933233032414</v>
+        <v>0.09786112282585234</v>
       </c>
     </row>
     <row r="46">
@@ -15463,19 +15463,19 @@
         <v>10708</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7325</v>
+        <v>7422</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13717</v>
+        <v>13634</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.5707188235800295</v>
+        <v>0.5707188235800293</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3904087268814765</v>
+        <v>0.3955788534347794</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.7310867733901916</v>
+        <v>0.7266544096703257</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>90</v>
@@ -15484,19 +15484,19 @@
         <v>46331</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>39783</v>
+        <v>39116</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>53166</v>
+        <v>52811</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5155874592776793</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.4427242166042124</v>
+        <v>0.4352991622592904</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5916521715799832</v>
+        <v>0.5877080389001995</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>111</v>
@@ -15505,19 +15505,19 @@
         <v>57039</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>49614</v>
+        <v>49029</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>64965</v>
+        <v>64625</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.5251105442713514</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.4567533386710611</v>
+        <v>0.4513700273119903</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5980806769318008</v>
+        <v>0.5949452945486251</v>
       </c>
     </row>
     <row r="47">
@@ -15534,19 +15534,19 @@
         <v>1838</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4816</v>
+        <v>4839</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09793601782719827</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02450008865763344</v>
+        <v>0.02538727854109933</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2566732580307352</v>
+        <v>0.2579054833117788</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>11</v>
@@ -15555,19 +15555,19 @@
         <v>5378</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9218</v>
+        <v>9183</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05984649498808555</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03007081587940786</v>
+        <v>0.03003167523781259</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1025792159535659</v>
+        <v>0.1021905827132292</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>14</v>
@@ -15576,19 +15576,19 @@
         <v>7215</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4019</v>
+        <v>3976</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>11937</v>
+        <v>11464</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06642586714684456</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03700169527579147</v>
+        <v>0.03660068136464921</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1098967858262731</v>
+        <v>0.1055429270116281</v>
       </c>
     </row>
     <row r="48">
@@ -15693,19 +15693,19 @@
         <v>3919</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>8009</v>
+        <v>7934</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.03473578669503661</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0150846056393841</v>
+        <v>0.01510777553948815</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0709794989534992</v>
+        <v>0.07031297804758281</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>7</v>
@@ -15714,19 +15714,19 @@
         <v>3919</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>8178</v>
+        <v>8291</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03407028121698521</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01576916245154721</v>
+        <v>0.01570338563692502</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.07108835179105548</v>
+        <v>0.07207210564666366</v>
       </c>
     </row>
     <row r="50">
@@ -15756,19 +15756,19 @@
         <v>11129</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>6746</v>
+        <v>7085</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>16114</v>
+        <v>16556</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.09863575156496646</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.05978434480879271</v>
+        <v>0.06278917972831133</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1428144455207545</v>
+        <v>0.1467263514540412</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>20</v>
@@ -15777,19 +15777,19 @@
         <v>11129</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>6994</v>
+        <v>7096</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>16526</v>
+        <v>16663</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.09674598198598691</v>
+        <v>0.09674598198598693</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.06079610044220119</v>
+        <v>0.06168443939608874</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1436597855981133</v>
+        <v>0.1448510624471566</v>
       </c>
     </row>
     <row r="51">
@@ -15819,19 +15819,19 @@
         <v>21850</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>16525</v>
+        <v>16423</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>28368</v>
+        <v>29053</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.1936467174670514</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.1464531223659992</v>
+        <v>0.1455501863368676</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.251415716639162</v>
+        <v>0.257486074493849</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>41</v>
@@ -15840,19 +15840,19 @@
         <v>21850</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>16045</v>
+        <v>16203</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>27936</v>
+        <v>28962</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.1899366258427437</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1394779584458175</v>
+        <v>0.1408525305229861</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2428457558841497</v>
+        <v>0.251760820777487</v>
       </c>
     </row>
     <row r="52">
@@ -15929,19 +15929,19 @@
         <v>10256</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>5994</v>
+        <v>5893</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>17364</v>
+        <v>17777</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.09089025460167213</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.05311802923123628</v>
+        <v>0.05222548256440943</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1538931821377403</v>
+        <v>0.1575516849468118</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>15</v>
@@ -15950,19 +15950,19 @@
         <v>10256</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>5829</v>
+        <v>5938</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>17476</v>
+        <v>17181</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.08914888156555943</v>
+        <v>0.08914888156555942</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.05067189595207168</v>
+        <v>0.05162020832584437</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1519152336212362</v>
+        <v>0.1493502233003937</v>
       </c>
     </row>
     <row r="54">
@@ -15992,19 +15992,19 @@
         <v>3715</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1612</v>
+        <v>1579</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>7072</v>
+        <v>6967</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.03292037434473044</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0142869087832269</v>
+        <v>0.01399264579449251</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.06267239203200446</v>
+        <v>0.0617420372003893</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>8</v>
@@ -16013,19 +16013,19 @@
         <v>3715</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>7321</v>
+        <v>7108</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.03228965048468752</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01471207405370418</v>
+        <v>0.01476037879669732</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.06364357124242329</v>
+        <v>0.06178602125257572</v>
       </c>
     </row>
     <row r="55">
@@ -16055,19 +16055,19 @@
         <v>58857</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>50825</v>
+        <v>49959</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>67263</v>
+        <v>66175</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.5216219238914074</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.4504393882528642</v>
+        <v>0.4427676945923766</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.5961202241524991</v>
+        <v>0.5864798666578707</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>105</v>
@@ -16076,19 +16076,19 @@
         <v>61061</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>53126</v>
+        <v>52878</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>69393</v>
+        <v>69264</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.5307872044427026</v>
+        <v>0.5307872044427023</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4618098035292795</v>
+        <v>0.4596556472899619</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.6032162468722769</v>
+        <v>0.6020946238494599</v>
       </c>
     </row>
     <row r="56">
@@ -16118,19 +16118,19 @@
         <v>3108</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1352</v>
+        <v>1391</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>6334</v>
+        <v>6457</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02754919143513563</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01198503994204541</v>
+        <v>0.01233202826431142</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.05613203269842917</v>
+        <v>0.0572258177601139</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>7</v>
@@ -16139,19 +16139,19 @@
         <v>3108</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1439</v>
+        <v>1408</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>6180</v>
+        <v>6040</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.02702137446133468</v>
+        <v>0.02702137446133467</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01250719138583631</v>
+        <v>0.01223783353027945</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.0537198955239716</v>
+        <v>0.05250601603689207</v>
       </c>
     </row>
     <row r="57">
@@ -16243,19 +16243,19 @@
         <v>2152</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>6632</v>
+        <v>5874</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.02054745772465111</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.004744472871585015</v>
+        <v>0.004755639350566482</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.06332917605287476</v>
+        <v>0.05609598328509634</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>16</v>
@@ -16264,19 +16264,19 @@
         <v>9124</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>5357</v>
+        <v>5306</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>14363</v>
+        <v>14773</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.03383933698932032</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.01986651359823187</v>
+        <v>0.01967668323324335</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.05326725388074373</v>
+        <v>0.05478939373216533</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>19</v>
@@ -16285,19 +16285,19 @@
         <v>11276</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>7057</v>
+        <v>7086</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>17340</v>
+        <v>17647</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.03012112083973557</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.0188504202453812</v>
+        <v>0.01892832288683727</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.04631883319374386</v>
+        <v>0.04713997583200981</v>
       </c>
     </row>
     <row r="59">
@@ -16314,19 +16314,19 @@
         <v>8091</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>4576</v>
+        <v>4391</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>13225</v>
+        <v>12845</v>
       </c>
       <c r="G59" s="6" t="n">
-        <v>0.0772589822490274</v>
+        <v>0.07725898224902741</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.04369863620023537</v>
+        <v>0.04192978573939114</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.126287265460691</v>
+        <v>0.1226580920325099</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>34</v>
@@ -16335,19 +16335,19 @@
         <v>18129</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>12782</v>
+        <v>12328</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>24805</v>
+        <v>25059</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.06723394671379904</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.04740300784890494</v>
+        <v>0.04571922842612764</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.09199284665092539</v>
+        <v>0.0929343538616548</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>48</v>
@@ -16356,19 +16356,19 @@
         <v>26220</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>19181</v>
+        <v>19641</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>34120</v>
+        <v>35351</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.0700383093088105</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.05123759002544315</v>
+        <v>0.05246461642158427</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.09114114394020822</v>
+        <v>0.09442905527926082</v>
       </c>
     </row>
     <row r="60">
@@ -16385,19 +16385,19 @@
         <v>14273</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>9420</v>
+        <v>9431</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>21252</v>
+        <v>20844</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.1362903727511272</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.08995407355556786</v>
+        <v>0.09005855084353624</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.2029376569533195</v>
+        <v>0.1990403259207879</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>99</v>
@@ -16406,19 +16406,19 @@
         <v>50112</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>41301</v>
+        <v>41358</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>59957</v>
+        <v>60728</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.1858501913181639</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.1531707029422913</v>
+        <v>0.1533827332991262</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.222360122264421</v>
+        <v>0.2252214770123883</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>122</v>
@@ -16427,19 +16427,19 @@
         <v>64385</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>53926</v>
+        <v>53480</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>76322</v>
+        <v>76372</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.1719865295968105</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.1440484241155114</v>
+        <v>0.142856924556375</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.2038730758289311</v>
+        <v>0.2040050304133887</v>
       </c>
     </row>
     <row r="61">
@@ -16456,19 +16456,19 @@
         <v>2149</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>6610</v>
+        <v>6376</v>
       </c>
       <c r="G61" s="6" t="n">
-        <v>0.02052213058943466</v>
+        <v>0.02052213058943467</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.005273255711852546</v>
+        <v>0.005309017330537029</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.06311895419551627</v>
+        <v>0.06088917291186178</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>8</v>
@@ -16477,19 +16477,19 @@
         <v>3427</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>1600</v>
+        <v>1538</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>6486</v>
+        <v>6495</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.01270790704248443</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.005933104131127204</v>
+        <v>0.00570353886232891</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.02405501571802678</v>
+        <v>0.0240866291426419</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>11</v>
@@ -16498,19 +16498,19 @@
         <v>5576</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>2838</v>
+        <v>3049</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>10484</v>
+        <v>10353</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.01489382609954102</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.007580337903155813</v>
+        <v>0.008143505315389956</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.0280062770597166</v>
+        <v>0.02765487197709357</v>
       </c>
     </row>
     <row r="62">
@@ -16527,19 +16527,19 @@
         <v>3703</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1217</v>
+        <v>1455</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>7705</v>
+        <v>8822</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.03536174386738299</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.01161824655807497</v>
+        <v>0.01389769170042514</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.07357822938988286</v>
+        <v>0.08424192257338733</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>34</v>
@@ -16548,19 +16548,19 @@
         <v>19146</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>13331</v>
+        <v>13176</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>27154</v>
+        <v>26911</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.07100720114866255</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.04944189459821013</v>
+        <v>0.04886568234717324</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.1007041204619602</v>
+        <v>0.09980390986303386</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>40</v>
@@ -16569,19 +16569,19 @@
         <v>22849</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>16418</v>
+        <v>16677</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>31144</v>
+        <v>31117</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.06103588616125658</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.0438552059649043</v>
+        <v>0.04454857298146498</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.08319367069541438</v>
+        <v>0.08312091945245592</v>
       </c>
     </row>
     <row r="63">
@@ -16598,19 +16598,19 @@
         <v>5897</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>2725</v>
+        <v>2784</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>10945</v>
+        <v>11260</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>0.05630697641719464</v>
+        <v>0.05630697641719465</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.0260223229606596</v>
+        <v>0.02658150536516945</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.1045105086012406</v>
+        <v>0.1075246221256881</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>28</v>
@@ -16619,19 +16619,19 @@
         <v>14266</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>9583</v>
+        <v>9542</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>20535</v>
+        <v>20123</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.05290640519503196</v>
+        <v>0.05290640519503195</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.03553882149182915</v>
+        <v>0.03538917661460708</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.07615646322610996</v>
+        <v>0.07462846603283971</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>37</v>
@@ -16640,19 +16640,19 @@
         <v>20162</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>14144</v>
+        <v>14829</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>27435</v>
+        <v>28765</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.05385766713356516</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.03778139692895133</v>
+        <v>0.0396112474978246</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.07328422251327776</v>
+        <v>0.07683682137650986</v>
       </c>
     </row>
     <row r="64">
@@ -16669,19 +16669,19 @@
         <v>62512</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>53791</v>
+        <v>53829</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>69885</v>
+        <v>71096</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.5969284186459261</v>
+        <v>0.5969284186459262</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.5136518865156309</v>
+        <v>0.5140148187313747</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.6673412835854022</v>
+        <v>0.6789022520410033</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>263</v>
@@ -16690,19 +16690,19 @@
         <v>143464</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>130341</v>
+        <v>129972</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>155332</v>
+        <v>154814</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.5320580658458824</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.483392085763905</v>
+        <v>0.482021763262053</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.576072121573183</v>
+        <v>0.5741534976915196</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>361</v>
@@ -16711,19 +16711,19 @@
         <v>205975</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>190509</v>
+        <v>192112</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>221317</v>
+        <v>220533</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.5502046340329344</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.5088906090331609</v>
+        <v>0.5131733452456639</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.5911853307267751</v>
+        <v>0.5890908174895878</v>
       </c>
     </row>
     <row r="65">
@@ -16740,19 +16740,19 @@
         <v>5947</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>3009</v>
+        <v>2980</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>10606</v>
+        <v>10487</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.05678391775525599</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.02873461753266052</v>
+        <v>0.02845914561274269</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1012806726573645</v>
+        <v>0.100137463375008</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>24</v>
@@ -16761,19 +16761,19 @@
         <v>11971</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>7776</v>
+        <v>7655</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>16784</v>
+        <v>17577</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.0443969457466554</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.02884020250681034</v>
+        <v>0.02839160451963294</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.06224482326105062</v>
+        <v>0.06518769683537531</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>34</v>
@@ -16782,19 +16782,19 @@
         <v>17918</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>12716</v>
+        <v>11984</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>24414</v>
+        <v>24715</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.04786202682734628</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.03396762500850573</v>
+        <v>0.03201175959794569</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.06521473664937678</v>
+        <v>0.06602009369821746</v>
       </c>
     </row>
     <row r="66">
